--- a/public/excel_files/masterlist-2014-09-04.xlsx
+++ b/public/excel_files/masterlist-2014-09-04.xlsx
@@ -101,7 +101,7 @@
     <t>S0</t>
   </si>
   <si>
-    <t>20,758.25</t>
+    <t>20,286.42</t>
   </si>
   <si>
     <t>John Dee Doe</t>
@@ -110,7 +110,7 @@
     <t>12,500.00</t>
   </si>
   <si>
-    <t>10,044.08</t>
+    <t>10,143.22</t>
   </si>
 </sst>
 </file>
@@ -609,10 +609,10 @@
         <v>25</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>581.3</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L5">
         <v>100</v>
@@ -665,7 +665,7 @@
         <v>290.65</v>
       </c>
       <c r="K6">
-        <v>156.25</v>
+        <v>50</v>
       </c>
       <c r="L6">
         <v>50</v>
